--- a/regions/5/ckhovrebis done/shemosavlebi.xlsx
+++ b/regions/5/ckhovrebis done/shemosavlebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -284,76 +284,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -363,11 +361,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,2005 +680,2252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="12">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="10">
         <v>2011</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>2012</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>2013</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>2014</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="10">
         <v>2015</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="10">
         <v>2016</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="10">
         <v>2017</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <v>2018</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>2019</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>2020</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="M2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>59.864338566561486</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>62.865162509970041</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>67.783803700320234</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>77.808146850108201</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>81.063434460398909</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>76.70330648436304</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>82.699816583753858</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>87.480147647087861</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>46.815138424827637</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>43.686469425813421</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="6">
         <v>49.66742168935766</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="M3" s="16">
+        <v>64.817827462666216</v>
+      </c>
+      <c r="N3" s="16">
+        <v>68.918183579106156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>45.326933557122359</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>49.779967660147648</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>56.761741968588815</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>65.96984146984552</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>68.031911184910143</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>64.967903839845249</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>72.040642284532538</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>77.446830180188329</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>41.627686084764925</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>37.039618781583549</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="6">
         <v>43.302405159352475</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="M4" s="16">
+        <v>58.203919715981755</v>
+      </c>
+      <c r="N4" s="16">
+        <v>62.452913245008617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>13.8325538158988</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>17.405081920061146</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>18.973129533507823</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>21.453541200651472</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>22.311734634233428</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>23.074625702790836</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>29.631667206219365</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>30.814144514789582</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>13.287828859113057</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>11.770798661729813</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="7">
         <v>15.679726133185703</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="M5" s="17">
+        <v>18.604001099236172</v>
+      </c>
+      <c r="N5" s="17">
+        <v>19.306195541517255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>3.1948367844173853</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>2.6221087956726628</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>2.8144348969901682</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>3.143999760176889</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>6.3985424245950071</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>4.7295463507913009</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>5.393714507525762</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>6.4133618340269729</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>2.9774152511978156</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>2.6219624720891317</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="7">
         <v>2.639670144894918</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="M6" s="17">
+        <v>2.8572047231801356</v>
+      </c>
+      <c r="N6" s="17">
+        <v>4.1959472222518919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>9.6716357754544386</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>8.6841088991391207</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>9.2609451035981767</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>13.32106461525467</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>12.461836044643062</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>10.411729680955839</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>8.5462148792819423</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>9.6837820845817255</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>9.3782440062098633</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>10.018780614414947</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="7">
         <v>9.1333836166775058</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="M7" s="17">
+        <v>16.776319296697679</v>
+      </c>
+      <c r="N7" s="17">
+        <v>16.136109111093045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>0.83174947690002443</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>0.5113554897413104</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.23072594773557761</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.59722008054661713</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>0.35818504443943916</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>0.61703226648249543</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.57968113089243578</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>0.83225358968734742</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>0.25251135412851972</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>0.10215430297851562</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="7">
         <v>0.19095133618672686</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="M8" s="17">
+        <v>0.14360136330922443</v>
+      </c>
+      <c r="N8" s="17">
+        <v>7.9652032438913972E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>9.3960295495533028</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>10.907617057938625</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>14.806544793320571</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>16.464290979513319</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>15.537038962889891</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>18.212218731040181</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>18.840251139669419</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>19.59189243041293</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>8.24191693977229</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <v>9.0431405169404329</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="7">
         <v>9.9177796937185914</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="M9" s="17">
+        <v>11.560132935131074</v>
+      </c>
+      <c r="N9" s="17">
+        <v>14.027290673611322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>2.8337304980266715</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2.904390178471135</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>3.8211144763437659</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>3.4132541902727653</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>3.6175250503934673</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>2.5699413641200541</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>3.410198177457175</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>4.5489144684028631</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>4.8867016206061056</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>1.4936032118479414</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="7">
         <v>2.4793261157843269</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="M10" s="17">
+        <v>4.3752198342831923</v>
+      </c>
+      <c r="N10" s="17">
+        <v>4.173686670209249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>5.5663976568716391</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>6.7453053191236423</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>6.8548472170927388</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>7.5764706434297704</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>7.3470490237157344</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>5.3528097436646904</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>5.6389152434864256</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>5.5624812582869136</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>2.603068053737287</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>1.9891790015827626</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="7">
         <v>3.2615681189046994</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="M11" s="17">
+        <v>3.8874404641442717</v>
+      </c>
+      <c r="N11" s="17">
+        <v>4.5340319938869449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>14.537405009439135</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>13.085194849822342</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>11.022061731731457</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>11.838305380262884</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>13.031523275488752</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>11.73540264451767</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>10.659174299221425</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>10.033317466899502</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>5.1874523400627073</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>6.6468506442298665</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="6">
         <v>6.365016530005188</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="M12" s="16">
+        <v>6.6139077466844727</v>
+      </c>
+      <c r="N12" s="16">
+        <v>6.465270334097541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>13.301469811183404</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>11.54644569552555</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>11.432948326624818</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>14.883886535865278</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>16.392819122722436</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>13.566634674685973</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>20.666847277081807</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>13.949258840154011</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>8.8941877653662349</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>9.5774479946231867</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="6">
         <v>9.4113364296086637</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="M13" s="16">
+        <v>13.407334460446041</v>
+      </c>
+      <c r="N13" s="16">
+        <v>11.816839270050686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>2.0883685654615554</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>0.46313799132222289</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>0.38227581722909293</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>1.175383796261289</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>0.25750823619446833</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>0.38125077590630913</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.64709218082427977</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.15366160723368325</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>0.20864315255482993</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>0.21261371294657389</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="7">
         <v>0.36636916281382242</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="M14" s="17">
+        <v>0.54753189964294435</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0.309576379776001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>11.213101245721848</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>11.083307704203337</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>11.050672509395726</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>13.708502739603993</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>16.135310886527968</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>13.185383898779666</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>20.019755096257523</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>13.795597232920327</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>8.6855446128114053</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>9.3648342816766128</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="7">
         <v>9.044967266794842</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="M15" s="17">
+        <v>12.859802560803095</v>
+      </c>
+      <c r="N15" s="17">
+        <v>11.507262890274685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>58.628403368305818</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>61.326413355673331</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>68.194690295213547</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>80.853728005710735</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>84.424730307632544</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>78.534538514531434</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>92.707489561614395</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>91.39608902034233</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>50.521873850131172</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>46.617066776206734</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="6">
         <v>52.713741588961149</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="M16" s="16">
+        <v>71.611254176427778</v>
+      </c>
+      <c r="N16" s="16">
+        <v>74.269752515059324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>73.165808377744824</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>74.411608205495412</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>79.216752026945144</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>92.692033385973531</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>97.456253583121395</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>90.26994115904894</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>103.36666386083573</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>101.42940648724183</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>55.709326190193885</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <v>53.263917420436584</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="8">
         <v>59.078758118966327</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="M17" s="18">
+        <v>78.225161923112253</v>
+      </c>
+      <c r="N17" s="18">
+        <v>80.735022849156863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
         <v>2011</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>2012</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>2013</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>2014</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>2015</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>2016</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <v>2017</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <v>2018</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>2019</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <v>2020</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="M21" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>563.90180346231773</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>582.45982560107359</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>623.65851763723072</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>722.47877063969918</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>754.14562264565666</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>722.88128297273352</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>762.12091654538074</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>840.21860284084096</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>1183.1601556033904</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>1128.1485206972336</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="6">
         <v>1245.3242026298572</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="M22" s="19">
+        <v>1613.6747939203099</v>
+      </c>
+      <c r="N22" s="19">
+        <v>1684.3421929771373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>426.96436961144343</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>461.2225614967316</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>522.24782207773694</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>612.55552141920157</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>632.9113534584086</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>612.2823621608901</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>663.89119824470708</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>743.85182465585297</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>1052.0575438337155</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>956.50190287389967</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="6">
         <v>1085.73248505429</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="M23" s="16">
+        <v>1449.0179913410152</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1526.3326946533118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>130.29797422052982</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>161.26198636841869</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>174.56609387281628</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>199.20443681011864</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>207.56950553653891</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>217.46409374867736</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="7">
         <v>273.07090030968646</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>295.9599194596712</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="7">
         <v>335.82362862867706</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="7">
         <v>303.96617699229915</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="7">
         <v>393.14185798470731</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="15" t="s">
+      <c r="M24" s="17">
+        <v>463.15664709982042</v>
+      </c>
+      <c r="N24" s="17">
+        <v>471.83831679369911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>30.094280963241506</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>24.294425892756163</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>25.89477426795818</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>29.193255122756455</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>59.526626190235874</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>44.573052853151943</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <v>49.705825404057528</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>61.598271889499948</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <v>75.248289558295482</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="7">
         <v>67.708906741344933</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="7">
         <v>66.185137190269501</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="M25" s="17">
+        <v>71.131653487174574</v>
+      </c>
+      <c r="N25" s="17">
+        <v>102.54784120698585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>91.103534872358836</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>80.460216007412882</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>85.207187852199624</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>123.69124283838161</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>115.93438108999142</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>98.124120780490856</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>78.757721429718785</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>93.009603574820659</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <v>237.01659358523361</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="7">
         <v>258.72249870262658</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="7">
         <v>229.00370671322071</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="M26" s="17">
+        <v>417.6555223087754</v>
+      </c>
+      <c r="N26" s="17">
+        <v>394.36224222451159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>7.8347985008013969</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>4.737823263045553</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>2.1228404823870295</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>5.5454196901241586</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>3.332250664670565</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>5.8151479626418867</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <v>5.3420567666240002</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>7.9935272989866304</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="7">
         <v>6.3817257215217165</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="7">
         <v>2.6380073121673102</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="7">
         <v>4.7877725959911173</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="M27" s="17">
+        <v>3.5750334347160551</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1.9466746223694722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>88.507417525162353</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>101.06151762961942</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>136.23059304781887</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>152.87731668058007</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>144.54346772665428</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>171.63891161273844</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <v>173.62250679200065</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>188.17380774548329</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>208.29817142566964</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="7">
         <v>233.52781148790703</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="7">
         <v>248.67107389198617</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="M28" s="17">
+        <v>287.79574789873243</v>
+      </c>
+      <c r="N28" s="17">
+        <v>342.82327693095402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>26.692781990511772</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>26.909826194459868</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>35.156932186552083</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>31.693386760895976</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>33.654393003765371</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>24.220109870211797</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="7">
         <v>31.426712512390409</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>43.690856290080525</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="7">
         <v>123.50173137066714</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="7">
         <v>38.570437851845668</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="7">
         <v>62.164789577955425</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="M29" s="17">
+        <v>108.9234588818872</v>
+      </c>
+      <c r="N29" s="17">
+        <v>102.00379919808191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>52.433581538836847</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>62.496766141018973</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>63.069400368004978</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <v>70.350463516344476</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>68.350729246551111</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>50.446925332979184</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="7">
         <v>51.965475030229172</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <v>53.425838397310699</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="7">
         <v>65.787403543651109</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="7">
         <v>51.36806378570865</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="7">
         <v>81.778147100159813</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="A31" s="14" t="s">
+      <c r="M30" s="17">
+        <v>96.779928229909316</v>
+      </c>
+      <c r="N30" s="17">
+        <v>110.81054367670964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>136.93743385087436</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>121.23726410434153</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>101.41069555949416</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>109.92324922049949</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>121.23426918724793</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>110.59892081184238</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>98.229718300674591</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>96.366778184987908</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>131.10261176967487</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>171.64661782333448</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="6">
         <v>159.59171757556723</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="M31" s="16">
+        <v>164.65680257929455</v>
+      </c>
+      <c r="N31" s="16">
+        <v>158.0094983238256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>125.29534268362545</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>106.98040818810388</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>105.19114030734464</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>138.20264949232322</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>152.50492242914407</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>127.85715152004128</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>190.45552021220757</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <v>133.97813205142228</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <v>224.78302819362497</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="6">
         <v>247.325634897942</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="6">
         <v>235.97288999994615</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="M32" s="16">
+        <v>333.78282672220553</v>
+      </c>
+      <c r="N32" s="16">
+        <v>288.80042880598597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>19.671724912627326</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="4">
         <v>4.2910773293871829</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>3.5172055341670174</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="4">
         <v>10.913893654202841</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>2.3956388032896885</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>3.5930530592926568</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="7">
         <v>5.9632839141753271</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>1.475870176408663</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="7">
         <v>5.2730435741152757</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="7">
         <v>5.4904836415756577</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="7">
         <v>9.1860694602364088</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="M33" s="17">
+        <v>13.631102119706565</v>
+      </c>
+      <c r="N33" s="17">
+        <v>7.5659649068858315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>105.62361777099812</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>102.68933085871677</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>101.67393477317763</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <v>127.28875583812041</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>150.10928362585435</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>124.26409846074864</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
         <v>184.49223629803222</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <v>132.50226187501366</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <v>219.50998461950968</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="7">
         <v>241.83515125636637</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="7">
         <v>226.78682053970979</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="14" t="s">
+      <c r="M34" s="17">
+        <v>320.15172460249897</v>
+      </c>
+      <c r="N34" s="17">
+        <v>281.23446389910015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>552.25971229506945</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>568.20296968483672</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>627.43896238508091</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>750.75817091152419</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>785.41627588755239</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>740.13951368093331</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="6">
         <v>854.34671845691514</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>877.82995670727519</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="6">
         <v>1276.8405720273408</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="6">
         <v>1203.8275377718414</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="6">
         <v>1321.7053750542361</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="M35" s="16">
+        <v>1782.8008180632207</v>
+      </c>
+      <c r="N35" s="16">
+        <v>1815.1331234592976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>689.19714614594261</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>689.44023378917586</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>728.84965794457628</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>860.68142013202282</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="5">
         <v>906.65054507480113</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="5">
         <v>850.73843449277422</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="8">
         <v>952.57643675758891</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <v>974.19673489226341</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <v>1407.9431837970158</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="8">
         <v>1375.4741555951757</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="8">
         <v>1481.2970926298033</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="23" t="s">
+      <c r="M36" s="18">
+        <v>1947.4576206425152</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1973.1426217831229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10">
         <v>2011</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>2012</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>2013</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>2014</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="10">
         <v>2015</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>2016</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="10">
         <v>2017</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="10">
         <v>2018</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>2019</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="11">
         <v>2020</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="17" t="s">
+      <c r="M40" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
+      <c r="A41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>158.7294571256335</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>167.99883086576705</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>182.48285435928656</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>210.35596410294093</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>220.49437624549506</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>210.00450787787639</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="6">
         <v>228.35643158680853</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="6">
         <v>242.78190529180657</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="6">
         <v>303.7202677760481</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="6">
         <v>287.1955828240678</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="6">
         <v>328.68388114191924</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="M41" s="16">
+        <v>436.96626408540067</v>
+      </c>
+      <c r="N41" s="16">
+        <v>476.25526032972664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>120.18373089835586</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>133.03037856800543</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>152.81002433306148</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <v>178.35085612359921</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>185.04833802512769</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>177.87437464022901</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="6">
         <v>198.9235850923198</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="6">
         <v>214.93663986269044</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="6">
         <v>270.06588872664702</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="6">
         <v>243.49907519129098</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="6">
         <v>286.56213885178443</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="A43" s="15" t="s">
+      <c r="M42" s="16">
+        <v>392.37892334586689</v>
+      </c>
+      <c r="N42" s="16">
+        <v>431.5773706036664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>36.676823137659206</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>46.512779048800489</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>51.07814322002455</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="4">
         <v>58.000100572745218</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>60.688423132795286</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="4">
         <v>63.175574004344412</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="7">
         <v>81.821001118270743</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>85.517879386966555</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="7">
         <v>86.206792824771554</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <v>77.381427851497932</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="7">
         <v>103.76365563993313</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="M43" s="17">
+        <v>125.41797797922561</v>
+      </c>
+      <c r="N43" s="17">
+        <v>133.41438653919272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="A44" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>8.4710650871341286</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="4">
         <v>7.0072388981097333</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>7.5768264006217789</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="4">
         <v>8.4998695826220523</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="4">
         <v>17.404180197677636</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="4">
         <v>12.948934008288354</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="7">
         <v>14.893496126308763</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <v>17.798874913566241</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="7">
         <v>19.316430278773005</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="7">
         <v>17.236825273628785</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="7">
         <v>17.468533671527787</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="M44" s="17">
+        <v>19.261708120876122</v>
+      </c>
+      <c r="N44" s="17">
+        <v>28.995859044509167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
+      <c r="A45" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>25.644207100823841</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="4">
         <v>23.207132279901444</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>24.931674003435578</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="4">
         <v>36.013778806705652</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="4">
         <v>33.896476060109897</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="4">
         <v>28.506074483925389</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="7">
         <v>23.598397360778364</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>26.875206868762962</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="7">
         <v>60.842771733098111</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K45" s="7">
         <v>65.863631819219734</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="7">
         <v>60.441953155197226</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
-      <c r="A46" s="15" t="s">
+      <c r="M45" s="17">
+        <v>113.09674907577133</v>
+      </c>
+      <c r="N45" s="17">
+        <v>111.50768122888132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
+      <c r="A46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>2.205372114586678</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>1.3665299031034481</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>0.62114439171463709</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="4">
         <v>1.6145970686981472</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
         <v>0.97427142681354395</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="4">
         <v>1.6893607773459365</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="7">
         <v>1.6006554787789795</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <v>2.3097367531359665</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="7">
         <v>1.6382054752557083</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="7">
         <v>0.67156410136832545</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="7">
         <v>1.2636578294648435</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
-      <c r="A47" s="15" t="s">
+      <c r="M46" s="17">
+        <v>0.96808167905572384</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0.55043092366827018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>24.913441044349483</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="4">
         <v>29.149163703737635</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>39.861152806197651</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="4">
         <v>44.5115574971705</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="4">
         <v>42.261097591392399</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="4">
         <v>49.862883456739112</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="7">
         <v>52.022999544347044</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <v>54.372987477303553</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="7">
         <v>53.470678591607808</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="7">
         <v>59.449757452545455</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="7">
         <v>65.632847672872629</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="M47" s="17">
+        <v>77.932079780124099</v>
+      </c>
+      <c r="N47" s="17">
+        <v>96.934809139497503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
+      <c r="A48" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>7.5135968151056822</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="4">
         <v>7.7615985528357418</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>10.286939333761625</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="4">
         <v>9.2278046064559618</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="4">
         <v>9.8397500037902468</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="4">
         <v>7.0361930428260608</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="7">
         <v>9.416474171007291</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>12.624511404617834</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="7">
         <v>31.703213419636477</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="7">
         <v>9.8189725691384897</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="7">
         <v>16.4074256853789</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="15" t="s">
+      <c r="M48" s="17">
+        <v>29.495333928620866</v>
+      </c>
+      <c r="N48" s="17">
+        <v>28.842028742293163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
+      <c r="A49" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>14.759225598696588</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="4">
         <v>18.025936181516947</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>18.454144177305668</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="4">
         <v>20.483147989201623</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="4">
         <v>19.984139612548343</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="4">
         <v>14.655354866760147</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="7">
         <v>15.570561292828566</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="7">
         <v>15.437443058337349</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="7">
         <v>16.88779640350441</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="7">
         <v>13.0768961238923</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="7">
         <v>21.584065197409885</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="17" t="s">
+      <c r="M49" s="17">
+        <v>26.206992782193211</v>
+      </c>
+      <c r="N49" s="17">
+        <v>31.332174985624341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
+      <c r="A50" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>38.545726227277669</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>34.968452297761466</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>29.672830026225203</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>32.005107979342249</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="3">
         <v>35.446038220367342</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>32.130133237647065</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="6">
         <v>29.432846494489024</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="6">
         <v>27.845265429116061</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="6">
         <v>33.654379049401129</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="6">
         <v>43.696507632776836</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="6">
         <v>42.121742290134819</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="17" t="s">
+      <c r="M50" s="16">
+        <v>44.587340739533708</v>
+      </c>
+      <c r="N50" s="16">
+        <v>44.677889726060286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
+      <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>35.268661320873193</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>30.856348732029794</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>30.778990415004834</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="3">
         <v>40.238900791226953</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="3">
         <v>44.588838992945384</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="3">
         <v>37.143828199859655</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="6">
         <v>57.066722651850064</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="6">
         <v>38.713099254055784</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="6">
         <v>57.702383900564762</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="6">
         <v>62.962303773573744</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="6">
         <v>62.281360280051082</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="M51" s="16">
+        <v>90.384899955170013</v>
+      </c>
+      <c r="N51" s="16">
+        <v>81.659608111591467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
+      <c r="A52" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>5.5372800670867033</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="4">
         <v>1.2376750168953041</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>1.0291364377972234</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="4">
         <v>3.1776748536348705</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="4">
         <v>0.70042823001182641</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="4">
         <v>1.0438191681943352</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="7">
         <v>1.7867955144871133</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="7">
         <v>0.42645398730801937</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <v>1.3536039045435144</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="7">
         <v>1.3977261153999383</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="7">
         <v>2.4245196200745291</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="M52" s="17">
+        <v>3.6911599481232975</v>
+      </c>
+      <c r="N52" s="17">
+        <v>2.1393102906277424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
+      <c r="A53" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>29.731381253786491</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="4">
         <v>29.618673715134516</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>29.749853977207614</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="4">
         <v>37.061225937592091</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="4">
         <v>43.888410762933546</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="4">
         <v>36.100009031665323</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="7">
         <v>55.27992713736294</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="7">
         <v>38.286645266747769</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="7">
         <v>56.348779996021243</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="7">
         <v>61.564577658173803</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="7">
         <v>59.856840659976555</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="14" t="s">
+      <c r="M53" s="17">
+        <v>86.693740007046713</v>
+      </c>
+      <c r="N53" s="17">
+        <v>79.520297820963719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>155.45239221922921</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>163.8867273000356</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>183.58901474806609</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="3">
         <v>218.58975691482598</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>229.63717701807298</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="3">
         <v>215.01820284008923</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="6">
         <v>255.99030774417</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="6">
         <v>253.6497391167463</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="6">
         <v>327.76827262721184</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="6">
         <v>306.46137896486476</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="6">
         <v>348.84349913183553</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="16" t="s">
+      <c r="M54" s="16">
+        <v>482.76382330103689</v>
+      </c>
+      <c r="N54" s="16">
+        <v>513.23697871525803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>193.99811844650654</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>198.85517959779639</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="5">
         <v>213.26184477429166</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>250.59486489416798</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="5">
         <v>265.08321523844052</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="5">
         <v>247.14833607773588</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="8">
         <v>285.42315423865881</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <v>281.49500454586234</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="8">
         <v>361.42265167661293</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="8">
         <v>350.15788659764166</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="8">
         <v>390.96524142197035</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="24" t="s">
+      <c r="M55" s="18">
+        <v>527.35116404057067</v>
+      </c>
+      <c r="N55" s="18">
+        <v>557.91486844131828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-    </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" customHeight="1">
-      <c r="A58" s="26" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
